--- a/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
+++ b/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PermissionCheckHandler" sheetId="4" r:id="rId1"/>
+    <sheet name="例外発生時の処理の流れ" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1539,6 +1540,1079 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="304800"/>
+          <a:ext cx="4419600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マルチスレッド実行制御ハンドラ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>136050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="304800"/>
+          <a:ext cx="1260000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データリーダ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="角丸四角形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="2009775"/>
+          <a:ext cx="1260000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サブスレッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="2019300"/>
+          <a:ext cx="1260000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サブスレッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="2028825"/>
+          <a:ext cx="1260000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サブスレッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="877650" y="981075"/>
+          <a:ext cx="8175" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="647700"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2305050" y="1009650"/>
+          <a:ext cx="4764" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3876675" y="1009650"/>
+          <a:ext cx="9526" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781551" y="666750"/>
+          <a:ext cx="266700" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="1409701"/>
+          <a:ext cx="266700" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="1381125"/>
+          <a:ext cx="285750" cy="266699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4171950" y="990602"/>
+          <a:ext cx="0" cy="1057273"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="990601"/>
+          <a:ext cx="9525" cy="1019174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="1390650"/>
+          <a:ext cx="266700" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="1400175"/>
+          <a:ext cx="285750" cy="266699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1400175"/>
+          <a:ext cx="266700" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866774" y="2867025"/>
+          <a:ext cx="923925" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32083"/>
+            <a:gd name="adj2" fmla="val -96428"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>例外発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1833,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
@@ -1844,4 +2918,21 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
+++ b/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
@@ -1599,7 +1599,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>マルチスレッド実行制御ハンドラ</a:t>
+            <a:t>親スレッド</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
             <a:effectLst/>
@@ -2925,7 +2925,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
+++ b/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PermissionCheckHandler" sheetId="4" r:id="rId1"/>
+    <sheet name="例外発生時の処理の流れ" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1539,6 +1540,1079 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="304800"/>
+          <a:ext cx="4419600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>親スレッド</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>136050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="304800"/>
+          <a:ext cx="1260000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データリーダ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="角丸四角形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="2009775"/>
+          <a:ext cx="1260000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サブスレッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="2019300"/>
+          <a:ext cx="1260000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サブスレッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="2028825"/>
+          <a:ext cx="1260000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サブスレッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="877650" y="981075"/>
+          <a:ext cx="8175" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="647700"/>
+          <a:ext cx="609600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2305050" y="1009650"/>
+          <a:ext cx="4764" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3876675" y="1009650"/>
+          <a:ext cx="9526" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781551" y="666750"/>
+          <a:ext cx="266700" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="1409701"/>
+          <a:ext cx="266700" cy="228599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="1381125"/>
+          <a:ext cx="285750" cy="266699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4171950" y="990602"/>
+          <a:ext cx="0" cy="1057273"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="990601"/>
+          <a:ext cx="9525" cy="1019174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="1390650"/>
+          <a:ext cx="266700" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="1400175"/>
+          <a:ext cx="285750" cy="266699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1400175"/>
+          <a:ext cx="266700" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866774" y="2867025"/>
+          <a:ext cx="923925" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32083"/>
+            <a:gd name="adj2" fmla="val -96428"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent6">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>例外発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1833,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
@@ -1844,4 +2918,21 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
+++ b/application_framework/application_framework/handlers/images/MultiThreadExecutionHandler/images.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="PermissionCheckHandler" sheetId="4" r:id="rId1"/>
-    <sheet name="例外発生時の処理の流れ" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1540,1079 +1539,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="304800"/>
-          <a:ext cx="4419600" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>親スレッド</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>136050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="角丸四角形 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5276850" y="304800"/>
-          <a:ext cx="1260000" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>データリーダ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>107475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="角丸四角形 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="2009775"/>
-          <a:ext cx="1260000" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サブスレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>78900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="角丸四角形 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1819275" y="2019300"/>
-          <a:ext cx="1260000" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サブスレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>50325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="角丸四角形 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3390900" y="2028825"/>
-          <a:ext cx="1260000" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サブスレッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>77550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="877650" y="981075"/>
-          <a:ext cx="8175" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="3"/>
-          <a:endCxn id="36" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4667250" y="647700"/>
-          <a:ext cx="609600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2305050" y="1009650"/>
-          <a:ext cx="4764" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3876675" y="1009650"/>
-          <a:ext cx="9526" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4781551" y="666750"/>
-          <a:ext cx="266700" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619126" y="1409701"/>
-          <a:ext cx="266700" cy="228599"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="1381125"/>
-          <a:ext cx="285750" cy="266699"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4171950" y="990602"/>
-          <a:ext cx="0" cy="1057273"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2628900" y="990601"/>
-          <a:ext cx="9525" cy="1019174"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2638425" y="1390650"/>
-          <a:ext cx="266700" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3629025" y="1400175"/>
-          <a:ext cx="285750" cy="266699"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191000" y="1400175"/>
-          <a:ext cx="266700" cy="257176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="866774" y="2867025"/>
-          <a:ext cx="923925" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -32083"/>
-            <a:gd name="adj2" fmla="val -96428"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent6">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="accent6">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent6">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>例外発生</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2907,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
@@ -2918,21 +1844,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>